--- a/Levantamento_Requisitos.xlsx
+++ b/Levantamento_Requisitos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a18467_alunos_ipca_pt/Documents/IPCA/2º Ano/1º Semestre/Desenvolvimento Colaborativo de Software/Projeto/DriveFood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116DBE33-7EDB-4769-B510-490B4C0F5F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{116DBE33-7EDB-4769-B510-490B4C0F5F12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33D70622-431F-4188-812A-4E46AD8B3422}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A69032A3-0D62-4886-8ED8-C48EA4E18EDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A69032A3-0D62-4886-8ED8-C48EA4E18EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Uma empresa pode ter mais que um utilizador empresa</t>
   </si>
   <si>
-    <t>Um entregador terá de ter no minimo carta de condução de carro</t>
-  </si>
-  <si>
     <t>O pedido terá de ter os dados pessoais do utlizador cliente</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Um entregador terá de ter viatura própria</t>
   </si>
   <si>
-    <t>Um Restaurante terá de responder a todos os requistos para ser registado</t>
-  </si>
-  <si>
     <t>O Cancelamento do pedido tem de ser justificado para feedback</t>
   </si>
   <si>
@@ -261,13 +255,19 @@
   </si>
   <si>
     <t>O cliente poderá entrar em contacto com um técnico na aplicação</t>
+  </si>
+  <si>
+    <t>Um entregador terá de ter no mínimo carta de condução de carro</t>
+  </si>
+  <si>
+    <t>Um Restaurante terá de responder a todos os requisitos para ser registado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +286,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,6 +359,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CE998A-7D3A-48F6-B693-C4BB591F7E80}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,29 +697,29 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,7 +737,7 @@
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,37 +757,37 @@
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -787,7 +801,7 @@
       </c>
     </row>
     <row r="19" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -798,12 +812,12 @@
     </row>
     <row r="21" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -813,17 +827,17 @@
     </row>
     <row r="24" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,7 +857,7 @@
     </row>
     <row r="30" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -858,197 +872,197 @@
     </row>
     <row r="33" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Levantamento_Requisitos.xlsx
+++ b/Levantamento_Requisitos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a18467_alunos_ipca_pt/Documents/IPCA/2º Ano/1º Semestre/Desenvolvimento Colaborativo de Software/Projeto/DriveFood/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\IPCA\DCS\DriveFood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{116DBE33-7EDB-4769-B510-490B4C0F5F12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33D70622-431F-4188-812A-4E46AD8B3422}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855CC15A-5362-4206-9822-A2F7F3CF4B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A69032A3-0D62-4886-8ED8-C48EA4E18EDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A69032A3-0D62-4886-8ED8-C48EA4E18EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="95">
   <si>
     <t>Validação do Administrador</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Uma empresa pode ter mais que um utilizador empresa</t>
   </si>
   <si>
+    <t>Um entregador terá de ter no minimo carta de condução de carro</t>
+  </si>
+  <si>
     <t>O pedido terá de ter os dados pessoais do utlizador cliente</t>
   </si>
   <si>
@@ -164,6 +167,9 @@
     <t>Um entregador terá de ter viatura própria</t>
   </si>
   <si>
+    <t>Um Restaurante terá de responder a todos os requistos para ser registado</t>
+  </si>
+  <si>
     <t>O Cancelamento do pedido tem de ser justificado para feedback</t>
   </si>
   <si>
@@ -257,17 +263,68 @@
     <t>O cliente poderá entrar em contacto com um técnico na aplicação</t>
   </si>
   <si>
-    <t>Um entregador terá de ter no mínimo carta de condução de carro</t>
-  </si>
-  <si>
-    <t>Um Restaurante terá de responder a todos os requisitos para ser registado</t>
+    <t>Funcional/Não Funcional</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Não Funcional</t>
+  </si>
+  <si>
+    <t>Detalhes</t>
+  </si>
+  <si>
+    <t>Inserir um email válido e validar se o email inserido já existe na base de dados.</t>
+  </si>
+  <si>
+    <t>Os utilizadores podem ser do tipo: Empresa, Entregador, Cliente e Admin</t>
+  </si>
+  <si>
+    <t>Exemplo: o Entregador pode aceitar pedidos, a Empresa pode adicionar produtos.</t>
+  </si>
+  <si>
+    <t>O entregador usufrui dos mesmos privilégios do cliente.</t>
+  </si>
+  <si>
+    <t>A área de entregas será definida pelo entregador, só sendo válida caso esteja dentro da área abrangida pela DriveFood.</t>
+  </si>
+  <si>
+    <t>????????</t>
+  </si>
+  <si>
+    <t>?????????</t>
+  </si>
+  <si>
+    <t>ao mesmo tempo??????</t>
+  </si>
+  <si>
+    <t>mas o cliente tem de preencher isso novamente, ou vem automaticamente???????</t>
+  </si>
+  <si>
+    <t>Caso o entregador já tenha pago os produtos e o cliente cancelar, a multa é aplicada</t>
+  </si>
+  <si>
+    <t>isto é uma pergunta?</t>
+  </si>
+  <si>
+    <t>O cliente aceita pedidos?</t>
+  </si>
+  <si>
+    <t>Se o entregador tiver um acidente, o seguro paga a comida?</t>
+  </si>
+  <si>
+    <t>Seguro no carro/mota?</t>
+  </si>
+  <si>
+    <t>Nós perguntamos isto no formulário?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +348,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,12 +425,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -682,390 +749,941 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CE998A-7D3A-48F6-B693-C4BB591F7E80}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="68.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="D2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+      <c r="C65" s="1"/>
+      <c r="D65" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+      <c r="E65" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{72F012F9-81F2-402D-B240-A31EE74B1840}">
+      <formula1>$I$2:$I$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{89CBE174-BD3D-4179-A1A7-EF73AF0D3E4A}">
+      <formula1>$H$2:$H$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
